--- a/biology/Zoologie/Angerona_prunaria/Angerona_prunaria.xlsx
+++ b/biology/Zoologie/Angerona_prunaria/Angerona_prunaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angéronie du Prunier, Phalène du Noisetier
 Angerona prunaria (l’Angéronie du Prunier, la Phalène du Noisetier) est une espèce d'insectes de l'ordre des lépidoptères, de la famille des géométridés et du genre Angerona.
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coloration de ce papillon est très variable allant de jaune clair à jaune orangé vif. Les ailes présentent des striures fines, noires et transversales. Le dimorphisme sexuel est accusé, la femelle arborant des teintes jaunes, le mâle des teintes orange[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration de ce papillon est très variable allant de jaune clair à jaune orangé vif. Les ailes présentent des striures fines, noires et transversales. Le dimorphisme sexuel est accusé, la femelle arborant des teintes jaunes, le mâle des teintes orange.
 			MHNTAngerona prunaria prunaria  ♀
 			Angerona prunaria prunaria  ♀   △
 			MHNTAngerona prunaria corylaria  ♀
 			Angerona prunaria corylaria  ♀  △
-La larve, mesurant jusqu'à 50 mm, est brun-jaune clair à brun rougeâtre[2].
+La larve, mesurant jusqu'à 50 mm, est brun-jaune clair à brun rougeâtre.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve sur divers végétaux ligneux tels le Prunelier[3] (Prunus spinosa), le  Chèvrefeuille des haies (Lonicera xylosteum), le Peuplier tremble (Populus tremula), la Bourdaine (Frangula alnus) ou encore le Myrtillier (Vaccinium myrtillus)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve sur divers végétaux ligneux tels le Prunelier (Prunus spinosa), le  Chèvrefeuille des haies (Lonicera xylosteum), le Peuplier tremble (Populus tremula), la Bourdaine (Frangula alnus) ou encore le Myrtillier (Vaccinium myrtillus).
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est bivoltine et hiverne à l'état larvaire. La nymphose s'effectue entre deux feuilles réunies par une soie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est bivoltine et hiverne à l'état larvaire. La nymphose s'effectue entre deux feuilles réunies par une soie.
 </t>
         </is>
       </c>
@@ -610,11 +628,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 février 2018)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 février 2018) :
 sous-espèce Angerona prunaria turbata
-Selon BioLib                    (2 février 2018)[5] :
+Selon BioLib                    (2 février 2018) :
 sous-espèce Angerona prunaria corylaria Thunberg
 sous-espèce Angerona prunaria fuscaria Prout
 sous-espèce Angerona prunaria pallidaria Prout
